--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="427">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Stroke Carotid Imaging Procedure Profile (R5)</t>
+    <t>Stroke Carotid Imaging Procedure Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,13 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Procedure profile to record key stroke procedures, including status, timing, complications, reasons, and context.</t>
+    <t xml:space="preserve"> Profile for documenting **carotid angiography** within a stroke episode.
+**Design intent**
+- This profile fixes `Procedure.code` to a specific SNOMED code (angiography of carotid artery).
+- If you want multiple carotid modalities, replace the fixed code with a required binding to CarotidImagingModalityVS.
+**Use-cases**
+- Determining whether carotid angiography was performed during the episode.
+- Capturing structured “not done” reasons for audit and quality improvement.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -465,6 +471,20 @@
   <si>
     <t xml:space="preserve">Extension {http://tecnomod-um.org/StructureDefinition/procedure-timing-context-ext}
 </t>
+  </si>
+  <si>
+    <t>Procedure Timing Context Extension</t>
+  </si>
+  <si>
+    <t>Extension classifying the procedure into a **timing context** relative to encounter start (acute/post-acute).
+**Primary use-case**
+- Operational reporting where “phase of care” is needed for compliance measures.
+**When to use**
+- When you want a stable, comparable phase label across sites (even if absolute times differ or onset time is uncertain).
+**Interpretation guidance**
+- Use `acute` for procedures within 24 hours of encounter start.
+- Use `post-acute` for procedures after 24 hours.
+- Use `unknown` when encounter/timing data are insufficient.</t>
   </si>
   <si>
     <t>Procedure.modifierExtension</t>
@@ -2782,10 +2802,10 @@
         <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2865,14 +2885,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2894,16 +2914,16 @@
         <v>134</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -2952,7 +2972,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2981,10 +3001,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3007,19 +3027,19 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -3068,7 +3088,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3083,24 +3103,24 @@
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3123,13 +3143,13 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3180,7 +3200,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3195,13 +3215,13 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>20</v>
@@ -3209,10 +3229,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3238,13 +3258,13 @@
         <v>101</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3294,7 +3314,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3309,13 +3329,13 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>20</v>
@@ -3323,14 +3343,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3349,13 +3369,13 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3406,7 +3426,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3421,13 +3441,13 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>20</v>
@@ -3435,14 +3455,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3461,16 +3481,16 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3520,7 +3540,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3535,24 +3555,24 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3578,13 +3598,13 @@
         <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3614,7 +3634,7 @@
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -3632,7 +3652,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>87</v>
@@ -3647,13 +3667,13 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>20</v>
@@ -3661,14 +3681,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3687,16 +3707,16 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3726,7 +3746,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -3744,7 +3764,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3759,13 +3779,13 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>20</v>
@@ -3773,10 +3793,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3799,13 +3819,13 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3832,13 +3852,13 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -3856,7 +3876,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3874,25 +3894,25 @@
         <v>20</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3911,17 +3931,17 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -3931,7 +3951,7 @@
         <v>20</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>20</v>
@@ -3946,13 +3966,13 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -3970,7 +3990,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3985,28 +4005,28 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4025,13 +4045,13 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4082,7 +4102,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>87</v>
@@ -4097,24 +4117,24 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4137,13 +4157,13 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4194,7 +4214,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4212,7 +4232,7 @@
         <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>20</v>
@@ -4223,10 +4243,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4249,16 +4269,16 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4308,7 +4328,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4323,24 +4343,24 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4363,16 +4383,16 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4422,7 +4442,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4437,24 +4457,24 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4477,13 +4497,13 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4534,7 +4554,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4549,13 +4569,13 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>20</v>
@@ -4563,10 +4583,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4589,13 +4609,13 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4646,7 +4666,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4664,10 +4684,10 @@
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>20</v>
@@ -4675,14 +4695,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4701,17 +4721,17 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4760,7 +4780,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4775,13 +4795,13 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>20</v>
@@ -4789,10 +4809,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4815,13 +4835,13 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4872,7 +4892,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4884,16 +4904,16 @@
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>20</v>
@@ -4901,10 +4921,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4927,13 +4947,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4984,7 +5004,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4993,7 +5013,7 @@
         <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>20</v>
@@ -5005,7 +5025,7 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>20</v>
@@ -5013,14 +5033,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5042,13 +5062,13 @@
         <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5098,7 +5118,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5119,7 +5139,7 @@
         <v>20</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>20</v>
@@ -5127,14 +5147,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5156,16 +5176,16 @@
         <v>134</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5214,7 +5234,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5243,10 +5263,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5269,17 +5289,17 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5304,13 +5324,13 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5328,7 +5348,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5343,24 +5363,24 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5383,17 +5403,17 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5442,7 +5462,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>87</v>
@@ -5451,30 +5471,30 @@
         <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5497,19 +5517,19 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5558,7 +5578,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5567,7 +5587,7 @@
         <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>99</v>
@@ -5579,7 +5599,7 @@
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>20</v>
@@ -5587,10 +5607,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5613,13 +5633,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5670,7 +5690,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5699,10 +5719,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5725,13 +5745,13 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5782,7 +5802,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5800,21 +5820,21 @@
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5837,16 +5857,16 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5872,13 +5892,13 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -5896,7 +5916,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5911,24 +5931,24 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5951,16 +5971,16 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5986,13 +6006,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6010,7 +6030,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6031,18 +6051,18 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6065,16 +6085,16 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6100,13 +6120,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6124,7 +6144,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6145,7 +6165,7 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>20</v>
@@ -6153,10 +6173,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6179,16 +6199,16 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6238,7 +6258,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6259,7 +6279,7 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>20</v>
@@ -6267,10 +6287,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6293,16 +6313,16 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6328,13 +6348,13 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -6352,7 +6372,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6373,7 +6393,7 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>20</v>
@@ -6381,10 +6401,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6407,13 +6427,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6440,13 +6460,13 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -6464,7 +6484,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6485,7 +6505,7 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>20</v>
@@ -6493,10 +6513,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6519,13 +6539,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6576,7 +6596,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6591,24 +6611,24 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6631,13 +6651,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6688,7 +6708,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6709,7 +6729,7 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>20</v>
@@ -6717,10 +6737,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6743,13 +6763,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6800,7 +6820,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6809,7 +6829,7 @@
         <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>20</v>
@@ -6821,7 +6841,7 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>20</v>
@@ -6829,14 +6849,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6858,13 +6878,13 @@
         <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6914,7 +6934,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6935,7 +6955,7 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>20</v>
@@ -6943,14 +6963,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6972,16 +6992,16 @@
         <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7030,7 +7050,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7059,10 +7079,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7085,13 +7105,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7118,13 +7138,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7142,7 +7162,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7163,7 +7183,7 @@
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>20</v>
@@ -7171,10 +7191,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7197,13 +7217,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7254,7 +7274,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>87</v>
@@ -7275,7 +7295,7 @@
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>20</v>
@@ -7283,10 +7303,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7309,19 +7329,19 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7346,13 +7366,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7370,7 +7390,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7391,7 +7411,7 @@
         <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>20</v>
@@ -7399,10 +7419,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7425,13 +7445,13 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7482,7 +7502,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7503,7 +7523,7 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,6 +88,10 @@
 **Design intent**
 - This profile fixes `Procedure.code` to a specific SNOMED code (angiography of carotid artery).
 - If you want multiple carotid modalities, replace the fixed code with a required binding to CarotidImagingModalityVS.
+**Typical scenarios**
+1) Carotid angiography performed: `status=completed`, `occurrence[x]` present, `timingContext` optional.
+2) Carotid angiography not performed: `status=not-done`, `statusReason` required.
+3) Carotid angiography performed elsewhere: `status=not-done`, `statusReason` = performedElsewhere, `occurrence[x]` optional.
 **Use-cases**
 - Determining whether carotid angiography was performed during the episode.
 - Capturing structured “not done” reasons for audit and quality improvement.</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
+++ b/StructureDefinition-stroke-carotid-imaging-procedure-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
